--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="675" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDEC5D2A-D7F4-42B1-80C0-5AE08FCA8FD2}"/>
+  <xr:revisionPtr revIDLastSave="680" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00F8B49A-C09E-4C6A-B0BF-F56824E87B69}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>Dividend income</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>VTI-VXUS</t>
+  </si>
+  <si>
+    <t>Book year end: October 31</t>
+  </si>
+  <si>
+    <t>Book year end: December 31</t>
   </si>
 </sst>
 </file>
@@ -933,7 +939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1116,6 +1124,9 @@
         <v>15761229</v>
       </c>
       <c r="J10" s="5"/>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F11" s="14"/>
@@ -1331,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,6 +1453,9 @@
       <c r="J6" s="5">
         <f>AVERAGE(D6:I6)</f>
         <v>9.8333333333333345E-4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1852,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF67C86-3C15-44BC-82E9-B79CA13DEE16}">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,6 +2053,9 @@
         <v>393006</v>
       </c>
       <c r="J10" s="5"/>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="680" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00F8B49A-C09E-4C6A-B0BF-F56824E87B69}"/>
+  <xr:revisionPtr revIDLastSave="717" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C10BF58-5553-4AF5-A4B7-AC3607FF944D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>Dividend income</t>
   </si>
@@ -360,9 +360,6 @@
     <t>FTSE USA All Cap</t>
   </si>
   <si>
-    <t>Leakage shouldn't be different</t>
-  </si>
-  <si>
     <t>So VTI/VXUS only 0,03% cheaper then VT because of TER</t>
   </si>
   <si>
@@ -382,6 +379,24 @@
   </si>
   <si>
     <t>Book year end: December 31</t>
+  </si>
+  <si>
+    <t>VTI-VXUS cheaper</t>
+  </si>
+  <si>
+    <t>VT leak</t>
+  </si>
+  <si>
+    <t>VTI-VXUS leak</t>
+  </si>
+  <si>
+    <t>Leakage shouldn't be different?</t>
+  </si>
+  <si>
+    <t>VT leak costs</t>
+  </si>
+  <si>
+    <t>VTI-VXUS leak costs</t>
   </si>
 </sst>
 </file>
@@ -497,7 +512,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,6 +560,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -829,9 +845,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -854,7 +870,7 @@
         <v>69827178</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -870,7 +886,7 @@
         <v>0.57016833760631136</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -902,7 +918,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5">
         <f>(D3*VTI!C22)+(D4*VXUS!C26)</f>
@@ -913,20 +929,106 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4">
+        <f>C7-C8</f>
+        <v>3.6056457621944489E-4</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="33">
+        <f>VT!J12</f>
+        <v>4.6003640353216309E-2</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="33">
+        <f>D4*VXUS!J12</f>
+        <v>3.3092330113641752E-2</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="4">
+        <f>VT!J13</f>
+        <v>1.1840408681430441E-3</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="4">
+        <f>D4*VXUS!J13</f>
+        <v>1.040941452213853E-3</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C14-C15</f>
+        <v>1.4309941592919109E-4</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -939,9 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1125,7 +1225,7 @@
       </c>
       <c r="J10" s="5"/>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1342,9 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1455,7 +1553,7 @@
         <v>9.8333333333333345E-4</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1789,7 +1887,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="12">
         <f>C25-AVERAGE(H17:I17)</f>
@@ -1866,9 +1964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF67C86-3C15-44BC-82E9-B79CA13DEE16}">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2054,7 +2150,7 @@
       </c>
       <c r="J10" s="5"/>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -2316,7 +2412,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="9">
         <f>C25-AVERAGE(H17:I17)</f>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="717" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C10BF58-5553-4AF5-A4B7-AC3607FF944D}"/>
+  <xr:revisionPtr revIDLastSave="719" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D8DC6F4-442A-481A-ABFE-5D703243C66C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>Dividend income</t>
   </si>
@@ -360,12 +360,6 @@
     <t>FTSE USA All Cap</t>
   </si>
   <si>
-    <t>So VTI/VXUS only 0,03% cheaper then VT because of TER</t>
-  </si>
-  <si>
-    <t>Index data van</t>
-  </si>
-  <si>
     <t>Data as at: 31 March 2021</t>
   </si>
   <si>
@@ -397,6 +391,9 @@
   </si>
   <si>
     <t>VTI-VXUS leak costs</t>
+  </si>
+  <si>
+    <t>Index data</t>
   </si>
 </sst>
 </file>
@@ -870,7 +867,7 @@
         <v>69827178</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -886,7 +883,7 @@
         <v>0.57016833760631136</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -918,7 +915,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5">
         <f>(D3*VTI!C22)+(D4*VXUS!C26)</f>
@@ -930,7 +927,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4">
         <f>C7-C8</f>
@@ -949,7 +946,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="33">
         <f>VT!J12</f>
@@ -961,7 +958,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="33">
         <f>D4*VXUS!J12</f>
@@ -980,7 +977,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4">
         <f>VT!J13</f>
@@ -992,7 +989,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4">
         <f>D4*VXUS!J13</f>
@@ -1023,13 +1020,11 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
-        <v>54</v>
-      </c>
+      <c r="B20" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,7 +1220,7 @@
       </c>
       <c r="J10" s="5"/>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1553,7 +1548,7 @@
         <v>9.8333333333333345E-4</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1887,7 +1882,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="12">
         <f>C25-AVERAGE(H17:I17)</f>
@@ -2150,7 +2145,7 @@
       </c>
       <c r="J10" s="5"/>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -2412,7 +2407,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="9">
         <f>C25-AVERAGE(H17:I17)</f>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="719" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D8DC6F4-442A-481A-ABFE-5D703243C66C}"/>
+  <xr:revisionPtr revIDLastSave="734" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2706EBA7-5B08-4184-ADC7-E1BEBEAA0344}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Dividend income</t>
   </si>
@@ -360,9 +360,6 @@
     <t>FTSE USA All Cap</t>
   </si>
   <si>
-    <t>Data as at: 31 March 2021</t>
-  </si>
-  <si>
     <t>Future costs estimation WO dividendleak</t>
   </si>
   <si>
@@ -394,6 +391,12 @@
   </si>
   <si>
     <t>Index data</t>
+  </si>
+  <si>
+    <t>Data as at: 31 Jun 2021</t>
+  </si>
+  <si>
+    <t>CRSP US Total Market Index</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
-  <dimension ref="B2:H20"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,10 +867,10 @@
         <v>51</v>
       </c>
       <c r="C2" s="7">
-        <v>69827178</v>
+        <v>75163286</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -876,14 +879,14 @@
         <v>53</v>
       </c>
       <c r="C3" s="7">
-        <v>39813246</v>
+        <v>43376587</v>
       </c>
       <c r="D3" s="6">
         <f>C3/C2</f>
-        <v>0.57016833760631136</v>
+        <v>0.57709806620216153</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -891,66 +894,68 @@
         <v>52</v>
       </c>
       <c r="C4" s="7">
-        <v>30013932</v>
+        <v>31786699</v>
       </c>
       <c r="D4" s="6">
         <f>C4/C2</f>
-        <v>0.42983166239368858</v>
+        <v>0.42290193379783847</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44358982</v>
+      </c>
+      <c r="D6" s="6">
+        <f>C6/C8</f>
+        <v>0.58255414381283166</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="7">
+        <v>31786699</v>
+      </c>
+      <c r="D7" s="6">
+        <f>C7/C8</f>
+        <v>0.4174458561871684</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <f>SUM(C6:C7)</f>
+        <v>76145681</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C10" s="5">
         <f>VT!C26</f>
         <v>5.2730993928290092E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="5">
-        <f>(D3*VTI!C22)+(D4*VXUS!C26)</f>
-        <v>1.6674536306345603E-4</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="4">
-        <f>C7-C8</f>
-        <v>3.6056457621944489E-4</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-    </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="33">
-        <f>VT!J12</f>
-        <v>4.6003640353216309E-2</v>
+        <v>55</v>
+      </c>
+      <c r="C11" s="5">
+        <f>(D3*VTI!C22)+(D4*VXUS!C26)</f>
+        <v>1.6594182976464758E-4</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -958,11 +963,11 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="33">
-        <f>D4*VXUS!J12</f>
-        <v>3.3092330113641752E-2</v>
+        <v>58</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C10-C11</f>
+        <v>3.6136810951825334E-4</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -977,11 +982,11 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="4">
-        <f>VT!J13</f>
-        <v>1.1840408681430441E-3</v>
+        <v>59</v>
+      </c>
+      <c r="C14" s="33">
+        <f>VT!J12</f>
+        <v>4.6003640353216309E-2</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -989,42 +994,73 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="4">
-        <f>D4*VXUS!J13</f>
-        <v>1.040941452213853E-3</v>
+        <v>60</v>
+      </c>
+      <c r="C15" s="33">
+        <f>D4*VXUS!J12</f>
+        <v>3.2558816912183416E-2</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4">
-        <f>C14-C15</f>
-        <v>1.4309941592919109E-4</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4">
+        <f>VT!J13</f>
+        <v>1.1840408681430441E-3</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4">
+        <f>D4*VXUS!J13</f>
+        <v>1.0241594364176197E-3</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
-        <v>62</v>
-      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4">
+        <f>C17-C18</f>
+        <v>1.5988143172542446E-4</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1220,7 +1256,7 @@
       </c>
       <c r="J10" s="5"/>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1548,7 +1584,7 @@
         <v>9.8333333333333345E-4</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1882,7 +1918,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="12">
         <f>C25-AVERAGE(H17:I17)</f>
@@ -2145,7 +2181,7 @@
       </c>
       <c r="J10" s="5"/>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -2407,7 +2443,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="9">
         <f>C25-AVERAGE(H17:I17)</f>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="734" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2706EBA7-5B08-4184-ADC7-E1BEBEAA0344}"/>
+  <xr:revisionPtr revIDLastSave="749" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3769633F-C44D-493B-A3BF-F12623EF3511}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>Dividend income</t>
   </si>
@@ -397,6 +397,18 @@
   </si>
   <si>
     <t>CRSP US Total Market Index</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>VXUS</t>
+  </si>
+  <si>
+    <t>Us lager</t>
+  </si>
+  <si>
+    <t>Rest hoger</t>
   </si>
 </sst>
 </file>
@@ -845,9 +857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1061,6 +1075,52 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="5">
+        <f>AVERAGE(VXUS!H12:I12)</f>
+        <v>9.1049977708263397E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5">
+        <f>AVERAGE(VT!H12:I12)</f>
+        <v>5.2625313795850268E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>0.82759285222883883</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <f>1/C28</f>
+        <v>1.2083236307646221</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <f>C25*D4*C29</f>
+        <v>4.6526757138336844E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1473,7 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1995,7 +2057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF67C86-3C15-44BC-82E9-B79CA13DEE16}">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="749" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3769633F-C44D-493B-A3BF-F12623EF3511}"/>
+  <xr:revisionPtr revIDLastSave="761" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87177832-3F4B-4380-9EC1-72C5183419A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="4635" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -415,13 +415,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -524,7 +525,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,13 +574,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -859,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1001,7 @@
       <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="5">
         <f>VT!J12</f>
         <v>4.6003640353216309E-2</v>
       </c>
@@ -1533,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,25 +1731,25 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="34">
         <v>468362</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="34">
         <v>299660</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="34">
         <v>440080</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="35">
         <v>623021</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="35">
         <v>785158</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="35">
         <v>1126012</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="34">
         <v>1048245</v>
       </c>
       <c r="J11" s="5"/>
@@ -1756,31 +1759,31 @@
         <v>42</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" ref="C12" si="1">C11/(C10+C11)</f>
+        <f t="shared" ref="C12:I12" si="1">C11/(C10+C11)</f>
         <v>0.10453736565445723</v>
       </c>
       <c r="D12" s="14">
-        <f t="shared" ref="D12" si="2">D11/(D10+D11)</f>
+        <f t="shared" si="1"/>
         <v>6.2773097854264437E-2</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" ref="E12" si="3">E11/(E10+E11)</f>
+        <f t="shared" si="1"/>
         <v>6.7570130035036424E-2</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" ref="F12" si="4">F11/(F10+F11)</f>
+        <f t="shared" si="1"/>
         <v>7.5862369599965521E-2</v>
       </c>
       <c r="G12" s="14">
-        <f t="shared" ref="G12" si="5">G11/(G10+G11)</f>
+        <f t="shared" si="1"/>
         <v>7.3628729869290754E-2</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" ref="H12" si="6">H11/(H10+H11)</f>
+        <f t="shared" si="1"/>
         <v>8.6595105213854176E-2</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" ref="I12" si="7">I11/(I10+I11)</f>
+        <f t="shared" si="1"/>
         <v>9.5504850202672603E-2</v>
       </c>
       <c r="J12" s="5">
@@ -1798,23 +1801,23 @@
         <v>1.8757339820120453E-3</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" ref="E13:I13" si="8">E11/E7</f>
+        <f t="shared" ref="E13:I13" si="2">E11/E7</f>
         <v>2.141956591245366E-3</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2.3075804156102997E-3</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2.4085314144904422E-3</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>3.0701371938350241E-3</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2.7265132747561305E-3</v>
       </c>
       <c r="J13" s="5">
@@ -1872,23 +1875,23 @@
         <v>9.0205615835871941E-4</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:I17" si="9">E16/E7</f>
+        <f t="shared" ref="E17:I17" si="3">E16/E7</f>
         <v>1.1066159209660266E-3</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>7.5020503392440928E-4</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6.9885504172308318E-4</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6.2732377223366053E-4</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5.0695831875457846E-4</v>
       </c>
       <c r="J17" s="4">
@@ -2280,31 +2283,31 @@
         <v>42</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" ref="C12" si="1">C11/(C10+C11)</f>
+        <f t="shared" ref="C12:I12" si="1">C11/(C10+C11)</f>
         <v>3.1531103625163502E-2</v>
       </c>
       <c r="D12" s="14">
-        <f t="shared" ref="D12" si="2">D11/(D10+D11)</f>
+        <f t="shared" si="1"/>
         <v>3.3767327010494418E-2</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" ref="E12" si="3">E11/(E10+E11)</f>
+        <f t="shared" si="1"/>
         <v>3.7713729168169688E-2</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" ref="F12" si="4">F11/(F10+F11)</f>
+        <f t="shared" si="1"/>
         <v>4.4030809196188507E-2</v>
       </c>
       <c r="G12" s="14">
-        <f t="shared" ref="G12" si="5">G11/(G10+G11)</f>
+        <f t="shared" si="1"/>
         <v>5.5259349152744691E-2</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" ref="H12" si="6">H11/(H10+H11)</f>
+        <f t="shared" si="1"/>
         <v>5.3315326591784971E-2</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" ref="I12" si="7">I11/(I10+I11)</f>
+        <f t="shared" si="1"/>
         <v>5.1935300999915571E-2</v>
       </c>
       <c r="J12" s="5">
@@ -2321,23 +2324,23 @@
         <v>8.8242025128812168E-4</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" ref="E13:I13" si="8">E11/E7</f>
+        <f t="shared" ref="E13:I13" si="2">E11/E7</f>
         <v>1.0074089848017829E-3</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1.0703103325099201E-3</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1.510102980378957E-3</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1.4780276479258881E-3</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1.1559750119535946E-3</v>
       </c>
       <c r="J13" s="5">
@@ -2399,23 +2402,23 @@
         <v>4.3087098193194306E-4</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:I17" si="9">E16/E7</f>
+        <f t="shared" ref="E17:I17" si="3">E16/E7</f>
         <v>5.5790511927329722E-4</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3.5031393381852537E-4</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3.4692748817940577E-4</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3.0499273100657767E-4</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>2.4038739042762055E-4</v>
       </c>
       <c r="J17" s="4">

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="761" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87177832-3F4B-4380-9EC1-72C5183419A3}"/>
+  <xr:revisionPtr revIDLastSave="841" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F767DFC4-8FDF-4FF3-B01E-009A4C22FE74}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="4635" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14415" yWindow="2955" windowWidth="17220" windowHeight="15555" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
     <sheet name="VTI" sheetId="13" r:id="rId2"/>
     <sheet name="VXUS" sheetId="17" r:id="rId3"/>
     <sheet name="VT" sheetId="16" r:id="rId4"/>
-    <sheet name="TD" sheetId="14" r:id="rId5"/>
+    <sheet name="Leakage" sheetId="18" r:id="rId5"/>
+    <sheet name="TD" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -196,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>Dividend income</t>
   </si>
@@ -409,6 +410,15 @@
   </si>
   <si>
     <t>Rest hoger</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Emerging</t>
   </si>
 </sst>
 </file>
@@ -422,7 +432,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -525,7 +535,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -574,15 +584,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1536,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="H12:I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,6 +2593,196 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC4B1D-6D6E-4BBB-9C04-D64B6974E845}">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34">
+        <v>392224</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34">
+        <v>42493</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" ref="D5:F5" si="0">D4/(D3+D4)</f>
+        <v>9.774865027132594E-2</v>
+      </c>
+      <c r="E5" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34">
+        <v>153612</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34">
+        <v>12039</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" ref="D11:F11" si="1">D10/(D9+D10)</f>
+        <v>7.2676892985855807E-2</v>
+      </c>
+      <c r="E11" s="14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34">
+        <v>1998576</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34">
+        <v>236038</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" ref="D17:F17" si="2">D16/(D15+D16)</f>
+        <v>0.10562808610346126</v>
+      </c>
+      <c r="E17" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="33"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="33"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="33"/>
+      <c r="H26" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55271D4-8CAB-4791-86A4-56A1D92A09CA}">
   <dimension ref="A1:P13"/>
   <sheetViews>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="841" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F767DFC4-8FDF-4FF3-B01E-009A4C22FE74}"/>
+  <xr:revisionPtr revIDLastSave="901" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434C35BA-9E86-4B6C-8399-046E74973CA7}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="2955" windowWidth="17220" windowHeight="15555" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
-    <sheet name="VTI" sheetId="13" r:id="rId2"/>
-    <sheet name="VXUS" sheetId="17" r:id="rId3"/>
-    <sheet name="VT" sheetId="16" r:id="rId4"/>
-    <sheet name="Leakage" sheetId="18" r:id="rId5"/>
-    <sheet name="TD" sheetId="14" r:id="rId6"/>
+    <sheet name="LeakageCompare" sheetId="19" r:id="rId2"/>
+    <sheet name="VTI" sheetId="13" r:id="rId3"/>
+    <sheet name="VXUS" sheetId="17" r:id="rId4"/>
+    <sheet name="VT" sheetId="16" r:id="rId5"/>
+    <sheet name="Leakage" sheetId="18" r:id="rId6"/>
+    <sheet name="TD" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -197,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>Dividend income</t>
   </si>
@@ -419,6 +420,27 @@
   </si>
   <si>
     <t>Emerging</t>
+  </si>
+  <si>
+    <t>VT Lek</t>
+  </si>
+  <si>
+    <t>VTI-VXUS Lek</t>
+  </si>
+  <si>
+    <t>Gemiddeld</t>
+  </si>
+  <si>
+    <t>VXUS Lek</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Non-US</t>
+  </si>
+  <si>
+    <t>Verdeling regios</t>
   </si>
 </sst>
 </file>
@@ -589,11 +611,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -873,9 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1143,6 +1163,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89DD999-D8B8-49AB-8483-F245C54FCD05}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5">
+        <f>VT!D13</f>
+        <v>8.8242025128812168E-4</v>
+      </c>
+      <c r="C2" s="5">
+        <f>VT!E13</f>
+        <v>1.0074089848017829E-3</v>
+      </c>
+      <c r="D2" s="5">
+        <f>VT!F13</f>
+        <v>1.0703103325099201E-3</v>
+      </c>
+      <c r="E2" s="5">
+        <f>VT!G13</f>
+        <v>1.510102980378957E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <f>VT!H13</f>
+        <v>1.4780276479258881E-3</v>
+      </c>
+      <c r="G2" s="5">
+        <f>VT!I13</f>
+        <v>1.1559750119535946E-3</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="9">
+        <f>AVERAGE(B2:G2)</f>
+        <v>1.1840408681430441E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="5">
+        <f>B9*B8</f>
+        <v>8.9284937543773356E-4</v>
+      </c>
+      <c r="C3" s="5">
+        <f>C9*C8</f>
+        <v>1.0259972072065302E-3</v>
+      </c>
+      <c r="D3" s="5">
+        <f>D9*D8</f>
+        <v>1.1168689211553851E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <f>E9*E8</f>
+        <v>1.0934732621786607E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <f>F9*F8</f>
+        <v>1.3907721488072657E-3</v>
+      </c>
+      <c r="G3" s="5">
+        <f>G9*G8</f>
+        <v>1.1751272214198924E-3</v>
+      </c>
+      <c r="I3" s="9">
+        <f>AVERAGE(B3:G3)</f>
+        <v>1.1158480227009113E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="33">
+        <f>100%-B7</f>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="C8" s="33">
+        <f t="shared" ref="C8:G8" si="0">100%-C7</f>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D8" s="33">
+        <f t="shared" si="0"/>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E8" s="33">
+        <f t="shared" si="0"/>
+        <v>0.45399999999999996</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" si="0"/>
+        <v>0.45299999999999996</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="0"/>
+        <v>0.43100000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="5">
+        <f>VXUS!D13</f>
+        <v>1.8757339820120453E-3</v>
+      </c>
+      <c r="C9" s="5">
+        <f>VXUS!E13</f>
+        <v>2.141956591245366E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <f>VXUS!F13</f>
+        <v>2.3075804156102997E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <f>VXUS!G13</f>
+        <v>2.4085314144904422E-3</v>
+      </c>
+      <c r="F9" s="5">
+        <f>VXUS!H13</f>
+        <v>3.0701371938350241E-3</v>
+      </c>
+      <c r="G9" s="5">
+        <f>VXUS!I13</f>
+        <v>2.7265132747561305E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
   <dimension ref="B2:L35"/>
   <sheetViews>
@@ -1543,12 +1780,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,12 +2304,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF67C86-3C15-44BC-82E9-B79CA13DEE16}">
   <dimension ref="B2:L34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I12"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,13 +2829,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC4B1D-6D6E-4BBB-9C04-D64B6974E845}">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:K31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2782,7 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55271D4-8CAB-4791-86A4-56A1D92A09CA}">
   <dimension ref="A1:P13"/>
   <sheetViews>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="901" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434C35BA-9E86-4B6C-8399-046E74973CA7}"/>
+  <xr:revisionPtr revIDLastSave="924" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D63CF856-476C-428B-8983-F75AE76EC493}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>Dividend income</t>
   </si>
@@ -377,21 +377,6 @@
     <t>VTI-VXUS cheaper</t>
   </si>
   <si>
-    <t>VT leak</t>
-  </si>
-  <si>
-    <t>VTI-VXUS leak</t>
-  </si>
-  <si>
-    <t>Leakage shouldn't be different?</t>
-  </si>
-  <si>
-    <t>VT leak costs</t>
-  </si>
-  <si>
-    <t>VTI-VXUS leak costs</t>
-  </si>
-  <si>
     <t>Index data</t>
   </si>
   <si>
@@ -401,18 +386,6 @@
     <t>CRSP US Total Market Index</t>
   </si>
   <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
-    <t>VXUS</t>
-  </si>
-  <si>
-    <t>Us lager</t>
-  </si>
-  <si>
-    <t>Rest hoger</t>
-  </si>
-  <si>
     <t>Europe</t>
   </si>
   <si>
@@ -422,25 +395,28 @@
     <t>Emerging</t>
   </si>
   <si>
-    <t>VT Lek</t>
-  </si>
-  <si>
-    <t>VTI-VXUS Lek</t>
-  </si>
-  <si>
-    <t>Gemiddeld</t>
-  </si>
-  <si>
-    <t>VXUS Lek</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
     <t>Non-US</t>
   </si>
   <si>
-    <t>Verdeling regios</t>
+    <t>VT Leakage</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>VTI-VXUS Leakage</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>VXUS Leakage</t>
+  </si>
+  <si>
+    <t>TODO!</t>
   </si>
 </sst>
 </file>
@@ -895,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -918,7 +894,7 @@
         <v>75163286</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -934,7 +910,7 @@
         <v>0.57709806620216153</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -954,7 +930,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C6" s="7">
         <v>44358982</v>
@@ -1029,25 +1005,15 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="5">
-        <f>VT!J12</f>
-        <v>4.6003640353216309E-2</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="33">
-        <f>D4*VXUS!J12</f>
-        <v>3.2558816912183416E-2</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -1060,37 +1026,22 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="4">
-        <f>VT!J13</f>
-        <v>1.1840408681430441E-3</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="4">
-        <f>D4*VXUS!J13</f>
-        <v>1.0241594364176197E-3</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4">
-        <f>C17-C18</f>
-        <v>1.5988143172542446E-4</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -1103,58 +1054,19 @@
       <c r="F20" s="6"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
-        <v>61</v>
-      </c>
+      <c r="B22" s="32"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="5">
-        <f>AVERAGE(VXUS!H12:I12)</f>
-        <v>9.1049977708263397E-2</v>
-      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="5">
-        <f>AVERAGE(VT!H12:I12)</f>
-        <v>5.2625313795850268E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28">
-        <v>0.82759285222883883</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29">
-        <f>1/C28</f>
-        <v>1.2083236307646221</v>
-      </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
-        <f>C25*D4*C29</f>
-        <v>4.6526757138336844E-2</v>
-      </c>
+      <c r="B31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1164,15 +1076,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89DD999-D8B8-49AB-8483-F245C54FCD05}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1196,12 +1106,12 @@
         <v>2020</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5">
         <f>VT!D13</f>
@@ -1235,35 +1145,69 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5">
-        <f>B9*B8</f>
+        <f t="shared" ref="B3:G3" si="0">B10*B8</f>
         <v>8.9284937543773356E-4</v>
       </c>
       <c r="C3" s="5">
-        <f>C9*C8</f>
+        <f t="shared" si="0"/>
         <v>1.0259972072065302E-3</v>
       </c>
       <c r="D3" s="5">
-        <f>D9*D8</f>
+        <f t="shared" si="0"/>
         <v>1.1168689211553851E-3</v>
       </c>
       <c r="E3" s="5">
-        <f>E9*E8</f>
+        <f t="shared" si="0"/>
         <v>1.0934732621786607E-3</v>
       </c>
       <c r="F3" s="5">
-        <f>F9*F8</f>
+        <f t="shared" si="0"/>
         <v>1.3907721488072657E-3</v>
       </c>
       <c r="G3" s="5">
-        <f>G9*G8</f>
+        <f t="shared" si="0"/>
         <v>1.1751272214198924E-3</v>
       </c>
       <c r="I3" s="9">
         <f>AVERAGE(B3:G3)</f>
         <v>1.1158480227009113E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5">
+        <f>B2-B3</f>
+        <v>-1.0429124149611874E-5</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:G4" si="1">C2-C3</f>
+        <v>-1.8588222404747334E-5</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.6558588645464983E-5</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1662971820029628E-4</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>8.7255499118622359E-5</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.915220946629775E-5</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4" si="2">I2-I3</f>
+        <v>6.8192845442132874E-5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1277,7 +1221,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1288,7 +1232,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B7" s="33">
         <v>0.52400000000000002</v>
@@ -1311,67 +1255,76 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B8" s="33">
         <f>100%-B7</f>
         <v>0.47599999999999998</v>
       </c>
       <c r="C8" s="33">
-        <f t="shared" ref="C8:G8" si="0">100%-C7</f>
+        <f t="shared" ref="C8:G8" si="3">100%-C7</f>
         <v>0.47899999999999998</v>
       </c>
       <c r="D8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.48399999999999999</v>
       </c>
       <c r="E8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.45399999999999996</v>
       </c>
       <c r="F8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.45299999999999996</v>
       </c>
       <c r="G8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.43100000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="5">
         <f>VXUS!D13</f>
         <v>1.8757339820120453E-3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="5">
         <f>VXUS!E13</f>
         <v>2.141956591245366E-3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <f>VXUS!F13</f>
         <v>2.3075804156102997E-3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <f>VXUS!G13</f>
         <v>2.4085314144904422E-3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <f>VXUS!H13</f>
         <v>3.0701371938350241E-3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <f>VXUS!I13</f>
         <v>2.7265132747561305E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I13" s="4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1784,9 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2308,9 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF67C86-3C15-44BC-82E9-B79CA13DEE16}">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2831,9 +2780,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC4B1D-6D6E-4BBB-9C04-D64B6974E845}">
-  <dimension ref="B2:I26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2843,9 +2794,14 @@
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1">
         <v>2019</v>
@@ -2860,7 +2816,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -2871,7 +2827,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -2882,7 +2838,7 @@
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -2899,13 +2855,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -2916,7 +2872,7 @@
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -2927,7 +2883,7 @@
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -2944,13 +2900,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -2961,7 +2917,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="924" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D63CF856-476C-428B-8983-F75AE76EC493}"/>
+  <xr:revisionPtr revIDLastSave="925" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE51CC2-49F7-43DB-A896-BD7CD1E08B67}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,9 +869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
-  <dimension ref="B2:H31"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -965,62 +967,58 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="5">
         <f>VT!C26</f>
         <v>5.2730993928290092E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <f>(D3*VTI!C22)+(D4*VXUS!C26)</f>
         <v>1.6594182976464758E-4</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="4">
-        <f>C10-C11</f>
-        <v>3.6136810951825334E-4</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C11-C12</f>
+        <v>3.6136810951825334E-4</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="33"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -1053,20 +1051,27 @@
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="32"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="925" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE51CC2-49F7-43DB-A896-BD7CD1E08B67}"/>
+  <xr:revisionPtr revIDLastSave="929" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C537C005-F21F-492C-A243-CD1C281C06E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -587,11 +587,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1341,7 +1341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1742,7 +1744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2264,7 +2268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF67C86-3C15-44BC-82E9-B79CA13DEE16}">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="D19:I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2788,7 +2794,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,6 +2802,7 @@
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2852,7 +2859,7 @@
         <v>9.774865027132594E-2</v>
       </c>
       <c r="E5" s="14" t="e">
-        <f t="shared" si="0"/>
+        <f>E4/(E3+E4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F5" s="14" t="e">

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="929" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C537C005-F21F-492C-A243-CD1C281C06E5}"/>
+  <xr:revisionPtr revIDLastSave="1004" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF78B677-AE01-405B-AEAD-BDC22E2AF1F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29445" yWindow="2310" windowWidth="17220" windowHeight="15555" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>Dividend income</t>
   </si>
@@ -417,13 +417,19 @@
   </si>
   <si>
     <t>TODO!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brokerage commissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brokerage commissions %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
@@ -431,6 +437,7 @@
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -533,7 +540,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -585,6 +592,7 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -974,8 +982,8 @@
         <v>16</v>
       </c>
       <c r="C11" s="5">
-        <f>VT!C26</f>
-        <v>5.2730993928290092E-4</v>
+        <f>VT!C29</f>
+        <v>5.7703044934231051E-4</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -983,8 +991,8 @@
         <v>55</v>
       </c>
       <c r="C12" s="5">
-        <f>(D3*VTI!C22)+(D4*VXUS!C26)</f>
-        <v>1.6594182976464758E-4</v>
+        <f>(D3*VTI!C25)+(D4*VXUS!C29)</f>
+        <v>1.9672788076763073E-4</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -996,7 +1004,7 @@
       </c>
       <c r="C13" s="4">
         <f>C11-C12</f>
-        <v>3.6136810951825334E-4</v>
+        <v>3.8030256857467975E-4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1339,11 +1347,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
-  <dimension ref="B2:L35"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:I15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1596,144 +1602,195 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0.04</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0.04</v>
-      </c>
-      <c r="I15" s="30">
-        <v>0.08</v>
-      </c>
-      <c r="J15" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="34">
+        <v>12669</v>
+      </c>
+      <c r="H15" s="34">
+        <v>17317</v>
+      </c>
+      <c r="I15" s="34">
+        <v>17830</v>
+      </c>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J16" s="15"/>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="37">
+        <f>G15/G7</f>
+        <v>1.8983005449013353E-5</v>
+      </c>
+      <c r="H16" s="37">
+        <f t="shared" ref="H16:I16" si="2">H15/H7</f>
+        <v>2.2062408622099875E-5</v>
+      </c>
+      <c r="I16" s="37">
+        <f t="shared" si="2"/>
+        <v>1.8025247962799593E-5</v>
+      </c>
+      <c r="J16" s="4">
+        <f>AVERAGE(G16:I16)</f>
+        <v>1.9690220677970939E-5</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4">
-        <f>J6-J13</f>
-        <v>1.4606522549374276E-4</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0.04</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="I18" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
+        <f>J6-J13+J16</f>
+        <v>1.6575544617171368E-4</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C21" s="4">
         <f>TD!L13/100</f>
         <v>1.1666666666666566E-4</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4">
-        <f>C18-C17</f>
-        <v>-2.9398558827077093E-5</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C22" s="4">
+        <f>C21-C20</f>
+        <v>-4.9088779505048022E-5</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C24" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="12">
-        <f>C21-AVERAGE(H13:I13)</f>
-        <v>1.1690444233499516E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="C25" s="9">
+        <f>C24-AVERAGE(H13:I13)+I16</f>
+        <v>1.3492969029779475E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="28">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="28">
         <v>2015</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C36" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="28">
         <v>2016</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C37" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="28">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="28">
         <v>2017</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C38" s="27" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C33" r:id="rId1" xr:uid="{11E84BEA-D4F7-4F16-A95B-839DA251BF20}"/>
-    <hyperlink ref="C34" r:id="rId2" xr:uid="{17E1D953-26F1-4456-A454-18F5ADBBD7DE}"/>
-    <hyperlink ref="C35" r:id="rId3" xr:uid="{52D5FA74-5D18-4814-8F98-D5F11AFA21AB}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{12AD84B6-A559-40B0-9843-937D6A1724C3}"/>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{11E84BEA-D4F7-4F16-A95B-839DA251BF20}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{17E1D953-26F1-4456-A454-18F5ADBBD7DE}"/>
+    <hyperlink ref="C38" r:id="rId3" xr:uid="{52D5FA74-5D18-4814-8F98-D5F11AFA21AB}"/>
+    <hyperlink ref="B33" r:id="rId4" xr:uid="{12AD84B6-A559-40B0-9843-937D6A1724C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
@@ -1742,11 +1799,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
-  <dimension ref="B2:L41"/>
+  <dimension ref="B2:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:I19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2108,156 +2163,203 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="F19" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="G19" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="H19" s="30">
-        <v>0.04</v>
-      </c>
-      <c r="I19" s="30">
-        <v>7.0000000000000007E-2</v>
+        <v>73</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="34">
+        <v>20573</v>
+      </c>
+      <c r="H19" s="34">
+        <v>17974</v>
+      </c>
+      <c r="I19" s="34">
+        <v>18531</v>
       </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="15"/>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <f>G19/G7</f>
+        <v>6.3109229977038845E-5</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" ref="H20:I20" si="4">H19/H7</f>
+        <v>4.9007156159961637E-5</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="4"/>
+        <v>4.819962651336839E-5</v>
+      </c>
+      <c r="J20" s="5">
+        <f>AVERAGE(G20:I20)</f>
+        <v>5.3438670883456291E-5</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4">
-        <f>J6-J17+J13</f>
-        <v>2.6397397709981385E-3</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="H22" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="I22" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4">
+        <f>J6-J17+J13+J20</f>
+        <v>2.6931784418815947E-3</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C25" s="4">
         <f>TD!L8/100</f>
         <v>2.7666666666666699E-3</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="4">
-        <f>C22-C21</f>
-        <v>1.2692689566853139E-4</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C26" s="4">
+        <f>C25-C24</f>
+        <v>7.3488224785075128E-5</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C28" s="4">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="12">
-        <f>C25-AVERAGE(H17:I17)</f>
-        <v>2.3285895450588054E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="9">
+        <f>C28-AVERAGE(H17:I17)+I20</f>
+        <v>2.8105858101924893E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="27"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="28">
-        <v>2014</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="28">
-        <v>2015</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>48</v>
-      </c>
+      <c r="C33" s="27"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
-        <v>2016</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="28">
+        <v>2015</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="28">
+        <v>2016</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="28">
         <v>2017</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C38" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{ED76CB1B-5562-44A9-A5BD-1AA7E8C157A5}"/>
-    <hyperlink ref="C35" r:id="rId2" xr:uid="{2F1603F0-01DB-4EF2-82EB-9AAC67F766FE}"/>
-    <hyperlink ref="C34" r:id="rId3" xr:uid="{90F2F803-B42B-4628-A6A1-EA56F9FBB509}"/>
-    <hyperlink ref="C33" r:id="rId4" xr:uid="{8EC1F22E-B99A-4367-BC38-95D33EA7B7E9}"/>
-    <hyperlink ref="C32" r:id="rId5" xr:uid="{7690CD5B-2D8E-4845-930B-A2BE3ABC5BC1}"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{ED76CB1B-5562-44A9-A5BD-1AA7E8C157A5}"/>
+    <hyperlink ref="C38" r:id="rId2" xr:uid="{2F1603F0-01DB-4EF2-82EB-9AAC67F766FE}"/>
+    <hyperlink ref="C37" r:id="rId3" xr:uid="{90F2F803-B42B-4628-A6A1-EA56F9FBB509}"/>
+    <hyperlink ref="C36" r:id="rId4" xr:uid="{8EC1F22E-B99A-4367-BC38-95D33EA7B7E9}"/>
+    <hyperlink ref="C35" r:id="rId5" xr:uid="{7690CD5B-2D8E-4845-930B-A2BE3ABC5BC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
@@ -2266,11 +2368,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF67C86-3C15-44BC-82E9-B79CA13DEE16}">
-  <dimension ref="B2:L34"/>
+  <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="D19:I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2635,154 +2735,205 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0.15</v>
-      </c>
-      <c r="F19" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="30">
-        <v>0.09</v>
-      </c>
-      <c r="H19" s="30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I19" s="30">
-        <v>0.06</v>
+        <v>73</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="34">
+        <v>557</v>
+      </c>
+      <c r="H19" s="34">
+        <v>519</v>
+      </c>
+      <c r="I19" s="34">
+        <v>926</v>
       </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="15"/>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <f>G19/G7</f>
+        <v>3.7852813107919492E-5</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" ref="H20:I20" si="4">H19/H7</f>
+        <v>3.1595055367747271E-5</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="4"/>
+        <v>4.972051005940957E-5</v>
+      </c>
+      <c r="J20" s="4">
+        <f>AVERAGE(G20:I20)</f>
+        <v>3.9722792845025449E-5</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4">
-        <f>J6-J17+J13</f>
-        <v>1.7788079273701493E-3</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0.15</v>
+      </c>
+      <c r="F22" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="30">
+        <v>0.09</v>
+      </c>
+      <c r="H22" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I22" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4">
+        <f>J6-J17+J13+J20</f>
+        <v>1.8185307202151747E-3</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C25" s="4">
         <f>TD!L4/100</f>
         <v>1.7500000000000016E-3</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="4">
-        <f>C22-C21</f>
-        <v>-2.8807927370147739E-5</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C26" s="4">
+        <f>C25-C24</f>
+        <v>-6.8530720215173114E-5</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C28" s="5">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="9">
-        <f>C25-AVERAGE(H17:I17)</f>
-        <v>5.2730993928290092E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="C29" s="9">
+        <f>C28-AVERAGE(H17:I17)+I20</f>
+        <v>5.7703044934231051E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="27"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
-        <v>2015</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="28">
-        <v>2016</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>40</v>
-      </c>
+      <c r="C32" s="27"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="28">
-        <v>2017</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>39</v>
-      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="27"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="28">
+        <v>2015</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="28">
+        <v>2016</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="28">
+        <v>2017</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="28">
         <v>2018</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C37" s="27" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" xr:uid="{9C2AA7DE-BCB5-4672-8248-8AFAD78158AD}"/>
-    <hyperlink ref="C34" r:id="rId2" xr:uid="{81AD15FB-87DD-48E3-8F0B-04F68A25B731}"/>
-    <hyperlink ref="C33" r:id="rId3" xr:uid="{D6D0E2D6-6891-4E6E-B08B-755D48CBD911}"/>
-    <hyperlink ref="C32" r:id="rId4" xr:uid="{B6403D6C-52D4-4870-B5B3-9878E1B0ACEB}"/>
-    <hyperlink ref="C31" r:id="rId5" xr:uid="{825F85A2-F85B-438D-9D46-2191AC59C247}"/>
+    <hyperlink ref="B32" r:id="rId1" xr:uid="{9C2AA7DE-BCB5-4672-8248-8AFAD78158AD}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{81AD15FB-87DD-48E3-8F0B-04F68A25B731}"/>
+    <hyperlink ref="C36" r:id="rId3" xr:uid="{D6D0E2D6-6891-4E6E-B08B-755D48CBD911}"/>
+    <hyperlink ref="C35" r:id="rId4" xr:uid="{B6403D6C-52D4-4870-B5B3-9878E1B0ACEB}"/>
+    <hyperlink ref="C34" r:id="rId5" xr:uid="{825F85A2-F85B-438D-9D46-2191AC59C247}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1004" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF78B677-AE01-405B-AEAD-BDC22E2AF1F5}"/>
+  <xr:revisionPtr revIDLastSave="1111" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B3AE25-9E30-411C-BE62-96A0E9644963}"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="2310" windowWidth="17220" windowHeight="15555" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -33,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +46,7 @@
     <author>Gerben</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{56D5A150-35C1-439C-BEC1-BC547F9B2B7C}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{56D5A150-35C1-439C-BEC1-BC547F9B2B7C}">
       <text>
         <r>
           <rPr>
@@ -66,30 +67,6 @@
           </rPr>
           <t xml:space="preserve">
 Tracking Difference</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{E55DD2C2-A5B3-4664-AB6E-9F3F05D8BA8A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gerben:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Outperformance Netto Index</t>
         </r>
       </text>
     </comment>
@@ -198,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t>Dividend income</t>
   </si>
@@ -221,9 +198,6 @@
     <t>Vs gross</t>
   </si>
   <si>
-    <t>OPNI</t>
-  </si>
-  <si>
     <t>FTSE Global All Cap gross</t>
   </si>
   <si>
@@ -248,9 +222,6 @@
     <t>Dividend income (net)</t>
   </si>
   <si>
-    <t>VT</t>
-  </si>
-  <si>
     <t>https://www.sec.gov/Archives/edgar/data/36405/000093247116012795/indexfunds_final.htm</t>
   </si>
   <si>
@@ -365,24 +336,15 @@
     <t>Future costs estimation WO dividendleak</t>
   </si>
   <si>
-    <t>VTI-VXUS</t>
-  </si>
-  <si>
     <t>Book year end: October 31</t>
   </si>
   <si>
     <t>Book year end: December 31</t>
   </si>
   <si>
-    <t>VTI-VXUS cheaper</t>
-  </si>
-  <si>
     <t>Index data</t>
   </si>
   <si>
-    <t>Data as at: 31 Jun 2021</t>
-  </si>
-  <si>
     <t>CRSP US Total Market Index</t>
   </si>
   <si>
@@ -423,6 +385,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Brokerage commissions %</t>
+  </si>
+  <si>
+    <t>Data as at: 30 June 2022</t>
   </si>
 </sst>
 </file>
@@ -437,7 +402,7 @@
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="0.0000%"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -592,7 +557,7 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -880,7 +845,7 @@
   <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,41 +863,41 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7">
-        <v>75163286</v>
+        <v>62522624</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="7">
-        <v>43376587</v>
+        <v>37030285</v>
       </c>
       <c r="D3" s="6">
         <f>C3/C2</f>
-        <v>0.57709806620216153</v>
+        <v>0.59227016767562413</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7">
-        <v>31786699</v>
+        <v>25492339</v>
       </c>
       <c r="D4" s="6">
         <f>C4/C2</f>
-        <v>0.42290193379783847</v>
+        <v>0.40772983232437587</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -940,34 +905,35 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="7">
-        <v>44358982</v>
+        <v>37426114</v>
       </c>
       <c r="D6" s="6">
         <f>C6/C8</f>
-        <v>0.58255414381283166</v>
+        <v>0.59483525445229879</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7">
-        <v>31786699</v>
+        <f>C4</f>
+        <v>25492339</v>
       </c>
       <c r="D7" s="6">
         <f>C7/C8</f>
-        <v>0.4174458561871684</v>
+        <v>0.40516474554770127</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
         <f>SUM(C6:C7)</f>
-        <v>76145681</v>
+        <v>62918453</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -978,34 +944,18 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5">
-        <f>VT!C29</f>
-        <v>5.7703044934231051E-4</v>
-      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="5">
-        <f>(D3*VTI!C25)+(D4*VXUS!C29)</f>
-        <v>1.9672788076763073E-4</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4">
-        <f>C11-C12</f>
-        <v>3.8030256857467975E-4</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -1119,12 +1069,12 @@
         <v>2020</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5">
         <f>VT!D13</f>
@@ -1158,7 +1108,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:G3" si="0">B10*B8</f>
@@ -1191,7 +1141,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5">
         <f>B2-B3</f>
@@ -1234,7 +1184,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1245,7 +1195,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B7" s="33">
         <v>0.52400000000000002</v>
@@ -1268,7 +1218,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" s="33">
         <f>100%-B7</f>
@@ -1306,7 +1256,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5">
         <f>VXUS!D13</f>
@@ -1347,20 +1297,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
-  <dimension ref="B2:L38"/>
+  <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="10" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
+    <col min="3" max="11" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1370,11 +1322,12 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="11"/>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2014</v>
       </c>
@@ -1396,16 +1349,19 @@
       <c r="I4" s="1">
         <v>2020</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>383002890</v>
@@ -1428,11 +1384,14 @@
       <c r="I5" s="17">
         <v>1080712300</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="17">
+        <v>1373412852</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5">
         <v>5.0000000000000001E-4</v>
@@ -1453,17 +1412,20 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="J6" s="5">
-        <f>AVERAGE(D6:I6)</f>
-        <v>3.5E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K6" s="5">
+        <f>AVERAGE(D6:J6)</f>
+        <v>3.4285714285714285E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="16">
-        <f t="shared" ref="D7:I7" si="0">(C5+D5)/2</f>
+        <f t="shared" ref="D7:J7" si="0">(C5+D5)/2</f>
         <v>391826973.5</v>
       </c>
       <c r="E7" s="16">
@@ -1486,12 +1448,16 @@
         <f t="shared" si="0"/>
         <v>989168084.5</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="16">
+        <f t="shared" si="0"/>
+        <v>1227062576</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1499,16 +1465,18 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="17"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="14"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1531,19 +1499,23 @@
       <c r="I10" s="7">
         <v>15761229</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="L10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="7">
+        <v>16541541</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="14"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -1566,9 +1538,12 @@
       <c r="I12" s="17">
         <v>170440</v>
       </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="17">
+        <v>154799</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1577,7 +1552,7 @@
         <v>2.4247947799846913E-4</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:I13" si="1">E12/E7</f>
+        <f t="shared" ref="E13:J13" si="1">E12/E7</f>
         <v>2.3604859798769949E-4</v>
       </c>
       <c r="F13" s="8">
@@ -1596,23 +1571,28 @@
         <f t="shared" si="1"/>
         <v>1.7230640845650939E-4</v>
       </c>
-      <c r="J13" s="4">
-        <f>AVERAGE(D13:I13)</f>
-        <v>2.0393477450625724E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
+        <v>1.2615412043990166E-4</v>
+      </c>
+      <c r="K13" s="5">
+        <f>AVERAGE(D13:J13)</f>
+        <v>1.9282325249677786E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="8"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1626,11 +1606,14 @@
       <c r="I15" s="34">
         <v>17830</v>
       </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="34">
+        <v>15697</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1640,28 +1623,33 @@
         <v>1.8983005449013353E-5</v>
       </c>
       <c r="H16" s="37">
-        <f t="shared" ref="H16:I16" si="2">H15/H7</f>
+        <f t="shared" ref="H16:J16" si="2">H15/H7</f>
         <v>2.2062408622099875E-5</v>
       </c>
       <c r="I16" s="37">
         <f t="shared" si="2"/>
         <v>1.8025247962799593E-5</v>
       </c>
-      <c r="J16" s="4">
-        <f>AVERAGE(G16:I16)</f>
-        <v>1.9690220677970939E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="37">
+        <f t="shared" si="2"/>
+        <v>1.2792338636200082E-5</v>
+      </c>
+      <c r="K16" s="4">
+        <f>AVERAGE(G16:J16)</f>
+        <v>1.7965750167528223E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="13"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="29">
         <v>0.03</v>
@@ -1681,18 +1669,21 @@
       <c r="I18" s="30">
         <v>0.08</v>
       </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4">
-        <f>J6-J13+J16</f>
-        <v>1.6575544617171368E-4</v>
+        <f>K6-K13+K16</f>
+        <v>1.6799964052789321E-4</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1701,32 +1692,33 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4">
-        <f>TD!L13/100</f>
-        <v>1.1666666666666566E-4</v>
+        <f>TD!M13/100</f>
+        <v>9.9999999999999137E-5</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4">
         <f>C21-C20</f>
-        <v>-4.9088779505048022E-5</v>
+        <v>-6.7999640527894068E-5</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
         <v>2.9999999999999997E-4</v>
@@ -1734,31 +1726,31 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="9">
-        <f>C24-AVERAGE(H13:I13)+I16</f>
-        <v>1.3492969029779475E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+        <f>C24-AVERAGE(I13:J13)+J16</f>
+        <v>1.6356207418799452E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -1766,7 +1758,7 @@
         <v>2015</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -1774,7 +1766,7 @@
         <v>2016</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -1782,7 +1774,7 @@
         <v>2017</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1799,20 +1791,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
-  <dimension ref="B2:L44"/>
+  <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="10" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
+    <col min="3" max="11" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1822,11 +1816,12 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="11"/>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2014</v>
       </c>
@@ -1848,16 +1843,19 @@
       <c r="I4" s="1">
         <v>2020</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>132940991</v>
@@ -1880,11 +1878,14 @@
       <c r="I5" s="17">
         <v>371747336</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="17">
+        <v>416836681</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5">
         <v>1.4E-3</v>
@@ -1908,20 +1909,23 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="J6" s="5">
-        <f>AVERAGE(D6:I6)</f>
-        <v>9.8333333333333345E-4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K6" s="5">
+        <f>AVERAGE(D6:J6)</f>
+        <v>9.2857142857142867E-4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="16">
-        <f t="shared" ref="D7:I7" si="0">(C5+D5)/2</f>
+        <f t="shared" ref="D7:J7" si="0">(C5+D5)/2</f>
         <v>159756129</v>
       </c>
       <c r="E7" s="16">
@@ -1944,9 +1948,13 @@
         <f t="shared" si="0"/>
         <v>384463560</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="16">
+        <f t="shared" si="0"/>
+        <v>394292008.5</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1954,18 +1962,20 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="17"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="14"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7">
         <v>4011969</v>
@@ -1988,11 +1998,14 @@
       <c r="I10" s="17">
         <v>9927585</v>
       </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="17">
+        <v>10474761</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="34">
         <v>468362</v>
@@ -2015,14 +2028,17 @@
       <c r="I11" s="34">
         <v>1048245</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="34">
+        <v>843579</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" ref="C12:I12" si="1">C11/(C10+C11)</f>
+        <f t="shared" ref="C12:J12" si="1">C11/(C10+C11)</f>
         <v>0.10453736565445723</v>
       </c>
       <c r="D12" s="14">
@@ -2049,14 +2065,18 @@
         <f t="shared" si="1"/>
         <v>9.5504850202672603E-2</v>
       </c>
-      <c r="J12" s="5">
-        <f>AVERAGE(D12:I12)</f>
-        <v>7.6989047129180643E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="14">
+        <f t="shared" si="1"/>
+        <v>7.4532042684704647E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <f>AVERAGE(D12:J12)</f>
+        <v>7.6638046494255513E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14">
@@ -2064,7 +2084,7 @@
         <v>1.8757339820120453E-3</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" ref="E13:I13" si="2">E11/E7</f>
+        <f t="shared" ref="E13:J13" si="2">E11/E7</f>
         <v>2.141956591245366E-3</v>
       </c>
       <c r="F13" s="14">
@@ -2083,28 +2103,34 @@
         <f t="shared" si="2"/>
         <v>2.7265132747561305E-3</v>
       </c>
-      <c r="J13" s="5">
-        <f>AVERAGE(D13:I13)</f>
-        <v>2.4217421453248847E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="14">
+        <f t="shared" si="2"/>
+        <v>2.1394778027817927E-3</v>
+      </c>
+      <c r="K13" s="5">
+        <f>AVERAGE(D13:J13)</f>
+        <v>2.3814186678187284E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="14"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="14"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2127,9 +2153,12 @@
       <c r="I16" s="17">
         <v>194907</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="17">
+        <v>109088</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -2138,7 +2167,7 @@
         <v>9.0205615835871941E-4</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:I17" si="3">E16/E7</f>
+        <f t="shared" ref="E17:J17" si="3">E16/E7</f>
         <v>1.1066159209660266E-3</v>
       </c>
       <c r="F17" s="8">
@@ -2157,72 +2186,79 @@
         <f t="shared" si="3"/>
         <v>5.0695831875457846E-4</v>
       </c>
-      <c r="J17" s="4">
-        <f>AVERAGE(D17:I17)</f>
-        <v>7.6533570766007953E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="8">
+        <f t="shared" si="3"/>
+        <v>2.7666804715368714E-4</v>
+      </c>
+      <c r="K17" s="5">
+        <f>AVERAGE(D17:J17)</f>
+        <v>6.9552604187345199E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="8"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="34">
+      <c r="H19" s="34">
         <v>20573</v>
       </c>
-      <c r="H19" s="34">
+      <c r="I19" s="34">
         <v>17974</v>
       </c>
-      <c r="I19" s="34">
+      <c r="J19" s="34">
         <v>18531</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="8">
-        <f>G19/G7</f>
-        <v>6.3109229977038845E-5</v>
-      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="8">
-        <f t="shared" ref="H20:I20" si="4">H19/H7</f>
-        <v>4.9007156159961637E-5</v>
+        <f>H19/H7</f>
+        <v>5.609348078774289E-5</v>
       </c>
       <c r="I20" s="8">
+        <f t="shared" ref="I20:J20" si="4">I19/I7</f>
+        <v>4.6750854619355865E-5</v>
+      </c>
+      <c r="J20" s="8">
         <f t="shared" si="4"/>
-        <v>4.819962651336839E-5</v>
-      </c>
-      <c r="J20" s="5">
-        <f>AVERAGE(G20:I20)</f>
-        <v>5.3438670883456291E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+        <v>4.699816278421986E-5</v>
+      </c>
+      <c r="K20" s="4">
+        <f>AVERAGE(D20:J20)</f>
+        <v>4.994749939710621E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="13"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="29">
         <v>0.03</v>
@@ -2242,15 +2278,18 @@
       <c r="I22" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4">
-        <f>J6-J17+J13+J20</f>
-        <v>2.6931784418815947E-3</v>
+        <f>K6-K17+K13+K20</f>
+        <v>2.6644115539138113E-3</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2258,59 +2297,60 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="4">
-        <f>TD!L8/100</f>
-        <v>2.7666666666666699E-3</v>
+        <f>TD!M8/100</f>
+        <v>2.95714285714286E-3</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="4">
         <f>C25-C24</f>
-        <v>7.3488224785075128E-5</v>
+        <v>2.9273130322904871E-4</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="9">
         <f>C28-AVERAGE(H17:I17)+I20</f>
-        <v>2.8105858101924893E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.7960980912523636E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="27"/>
     </row>
@@ -2323,7 +2363,7 @@
         <v>2014</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -2331,7 +2371,7 @@
         <v>2015</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -2339,7 +2379,7 @@
         <v>2016</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -2347,7 +2387,7 @@
         <v>2017</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -2368,20 +2408,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF67C86-3C15-44BC-82E9-B79CA13DEE16}">
-  <dimension ref="B2:L37"/>
+  <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="F12:J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="10" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
+    <col min="3" max="11" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2391,11 +2433,12 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="11"/>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2014</v>
       </c>
@@ -2417,16 +2460,19 @@
       <c r="I4" s="1">
         <v>2020</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>5840456</v>
@@ -2449,11 +2495,14 @@
       <c r="I5" s="17">
         <v>20018684</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="17">
+        <v>34198204</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5">
         <v>1.4E-3</v>
@@ -2474,17 +2523,20 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="J6" s="5">
-        <f>AVERAGE(D6:I6)</f>
-        <v>9.6666666666666678E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K6" s="5">
+        <f>AVERAGE(D6:J6)</f>
+        <v>9.1428571428571438E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="16">
-        <f t="shared" ref="D7:I7" si="0">(C5+D5)/2</f>
+        <f t="shared" ref="D7:J7" si="0">(C5+D5)/2</f>
         <v>6818746.5</v>
       </c>
       <c r="E7" s="16">
@@ -2507,12 +2559,16 @@
         <f t="shared" si="0"/>
         <v>18624105</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="16">
+        <f t="shared" si="0"/>
+        <v>27108444</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2520,18 +2576,20 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="17"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="14"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7">
         <v>132534</v>
@@ -2554,14 +2612,17 @@
       <c r="I10" s="7">
         <v>393006</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="7">
+        <v>541537</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7">
         <v>4315</v>
@@ -2584,14 +2645,17 @@
       <c r="I11" s="17">
         <v>21529</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="17">
+        <v>35514</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" ref="C12:I12" si="1">C11/(C10+C11)</f>
+        <f t="shared" ref="C12:J12" si="1">C11/(C10+C11)</f>
         <v>3.1531103625163502E-2</v>
       </c>
       <c r="D12" s="14">
@@ -2618,21 +2682,25 @@
         <f t="shared" si="1"/>
         <v>5.1935300999915571E-2</v>
       </c>
-      <c r="J12" s="5">
-        <f>AVERAGE(D12:I12)</f>
-        <v>4.6003640353216309E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="14">
+        <f t="shared" si="1"/>
+        <v>6.1543953654009782E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <f>AVERAGE(D12:J12)</f>
+        <v>4.8223685110472522E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="14">
         <f>D11/D7</f>
         <v>8.8242025128812168E-4</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" ref="E13:I13" si="2">E11/E7</f>
+        <f t="shared" ref="E13:J13" si="2">E11/E7</f>
         <v>1.0074089848017829E-3</v>
       </c>
       <c r="F13" s="14">
@@ -2651,12 +2719,16 @@
         <f t="shared" si="2"/>
         <v>1.1559750119535946E-3</v>
       </c>
-      <c r="J13" s="5">
-        <f>AVERAGE(D13:I13)</f>
-        <v>1.1840408681430441E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="14">
+        <f t="shared" si="2"/>
+        <v>1.3100715039195904E-3</v>
+      </c>
+      <c r="K13" s="5">
+        <f>AVERAGE(D13:J13)</f>
+        <v>1.2020452446825508E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <f>C11/C10</f>
         <v>3.2557683311452153E-2</v>
@@ -2667,16 +2739,18 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="14"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="14"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2699,9 +2773,12 @@
       <c r="I16" s="17">
         <v>4477</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="17">
+        <v>4452</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -2710,7 +2787,7 @@
         <v>4.3087098193194306E-4</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:I17" si="3">E16/E7</f>
+        <f t="shared" ref="E17:J17" si="3">E16/E7</f>
         <v>5.5790511927329722E-4</v>
       </c>
       <c r="F17" s="8">
@@ -2729,72 +2806,78 @@
         <f t="shared" si="3"/>
         <v>2.4038739042762055E-4</v>
       </c>
-      <c r="J17" s="4">
-        <f>AVERAGE(D17:I17)</f>
-        <v>3.7189960743956167E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6422927114518267E-4</v>
+      </c>
+      <c r="K17" s="5">
+        <f>AVERAGE(D17:J17)</f>
+        <v>3.4223241654036469E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="8"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="34">
+      <c r="H19" s="34">
         <v>557</v>
       </c>
-      <c r="H19" s="34">
+      <c r="I19" s="34">
         <v>519</v>
       </c>
-      <c r="I19" s="34">
+      <c r="J19" s="34">
         <v>926</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="8">
-        <f>G19/G7</f>
-        <v>3.7852813107919492E-5</v>
-      </c>
       <c r="H20" s="8">
-        <f t="shared" ref="H20:I20" si="4">H19/H7</f>
-        <v>3.1595055367747271E-5</v>
+        <f>H19/H7</f>
+        <v>3.3908373487158438E-5</v>
       </c>
       <c r="I20" s="8">
+        <f t="shared" ref="I20:J20" si="4">I19/I7</f>
+        <v>2.786711092962588E-5</v>
+      </c>
+      <c r="J20" s="8">
         <f t="shared" si="4"/>
-        <v>4.972051005940957E-5</v>
-      </c>
-      <c r="J20" s="4">
-        <f>AVERAGE(G20:I20)</f>
-        <v>3.9722792845025449E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+        <v>3.4159098176199269E-5</v>
+      </c>
+      <c r="K20" s="4">
+        <f>AVERAGE(D20:J20)</f>
+        <v>3.1978194197661198E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="13"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="29">
         <v>7.0000000000000007E-2</v>
@@ -2814,18 +2897,21 @@
       <c r="I22" s="30">
         <v>0.06</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4">
-        <f>J6-J17+J13+J20</f>
-        <v>1.8185307202151747E-3</v>
+        <f>K6-K17+K13+K20</f>
+        <v>1.8060767366255618E-3</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2834,60 +2920,61 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="4">
-        <f>TD!L4/100</f>
-        <v>1.7500000000000016E-3</v>
+        <f>TD!M4/100</f>
+        <v>1.8571428571428586E-3</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="4">
         <f>C25-C24</f>
-        <v>-6.8530720215173114E-5</v>
+        <v>5.1066120517296882E-5</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" s="5">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="9">
-        <f>C28-AVERAGE(H17:I17)+I20</f>
-        <v>5.7703044934231051E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+        <f>C28-AVERAGE(H17:I17)+J20</f>
+        <v>4.6146903745910016E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="27"/>
     </row>
@@ -2900,7 +2987,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -2908,7 +2995,7 @@
         <v>2016</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -2916,7 +3003,7 @@
         <v>2017</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -2924,7 +3011,7 @@
         <v>2018</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2959,12 +3046,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1">
         <v>2019</v>
@@ -2981,7 +3068,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34">
@@ -2992,7 +3079,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34">
@@ -3003,7 +3090,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" ref="D5:F5" si="0">D4/(D3+D4)</f>
@@ -3020,13 +3107,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34">
@@ -3037,7 +3124,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34">
@@ -3048,7 +3135,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" ref="D11:F11" si="1">D10/(D9+D10)</f>
@@ -3065,13 +3152,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34">
@@ -3082,7 +3169,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34">
@@ -3093,7 +3180,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="14">
         <f t="shared" ref="D17:F17" si="2">D16/(D15+D16)</f>
@@ -3140,7 +3227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55271D4-8CAB-4791-86A4-56A1D92A09CA}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3177,12 +3264,12 @@
       <c r="J1" s="22">
         <v>2020</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="18" t="s">
+      <c r="K1" s="22">
+        <v>2021</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="18" t="s">
         <v>2</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>7</v>
       </c>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -3219,7 +3306,9 @@
       <c r="J2" s="23">
         <v>16.739999999999998</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="23">
+        <v>18.25</v>
+      </c>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -3228,7 +3317,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="20">
         <v>17.2</v>
@@ -3257,7 +3346,9 @@
       <c r="J3" s="20">
         <v>16.8</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="20">
+        <v>18.5</v>
+      </c>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
@@ -3269,7 +3360,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="24">
-        <f t="shared" ref="B4:J4" si="0">B3-B2</f>
+        <f t="shared" ref="B4:K4" si="0">B3-B2</f>
         <v>-0.12999999999999901</v>
       </c>
       <c r="C4" s="24">
@@ -3304,14 +3395,17 @@
         <f t="shared" si="0"/>
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="25">
-        <f>AVERAGE(E4:J4)</f>
-        <v>0.17500000000000016</v>
-      </c>
-      <c r="M4" s="20"/>
+      <c r="K4" s="24">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="25">
+        <f>AVERAGE(E4:K4)</f>
+        <v>0.18571428571428586</v>
+      </c>
       <c r="N4" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
@@ -3327,7 +3421,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
@@ -3336,7 +3430,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="26">
         <v>18.22</v>
@@ -3365,7 +3459,9 @@
       <c r="J6" s="26">
         <v>11.32</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="26">
+        <v>8.69</v>
+      </c>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -3374,7 +3470,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="21">
         <v>17.899999999999999</v>
@@ -3403,7 +3499,9 @@
       <c r="J7" s="21">
         <v>11.5</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="21">
+        <v>9.1</v>
+      </c>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
@@ -3419,7 +3517,7 @@
         <v>-0.32000000000000028</v>
       </c>
       <c r="C8" s="20">
-        <f t="shared" ref="C8:J8" si="1">C7-C6</f>
+        <f t="shared" ref="C8:K8" si="1">C7-C6</f>
         <v>0.74000000000000021</v>
       </c>
       <c r="D8" s="20">
@@ -3450,14 +3548,17 @@
         <f t="shared" si="1"/>
         <v>0.17999999999999972</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="25">
-        <f>AVERAGE(E8:J8)</f>
-        <v>0.276666666666667</v>
-      </c>
-      <c r="M8" s="20"/>
+      <c r="K8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="25">
+        <f>AVERAGE(E8:K8)</f>
+        <v>0.29571428571428598</v>
+      </c>
       <c r="N8" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
@@ -3473,7 +3574,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
@@ -3482,7 +3583,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="21">
         <v>16.41</v>
@@ -3511,7 +3612,9 @@
       <c r="J10" s="21">
         <v>20.95</v>
       </c>
-      <c r="K10" s="20"/>
+      <c r="K10" s="21">
+        <v>25.72</v>
+      </c>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
@@ -3520,7 +3623,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="21">
         <v>16.440000000000001</v>
@@ -3549,7 +3652,9 @@
       <c r="J11" s="21">
         <v>20.99</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="21">
+        <v>25.72</v>
+      </c>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
@@ -3558,7 +3663,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="19">
         <v>16.399999999999999</v>
@@ -3587,7 +3692,9 @@
       <c r="J12" s="19">
         <v>21.1</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="19">
+        <v>25.7</v>
+      </c>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
@@ -3599,7 +3706,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="20">
-        <f t="shared" ref="B13:J13" si="2">B11-B10</f>
+        <f t="shared" ref="B13:K13" si="2">B11-B10</f>
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="C13" s="20">
@@ -3634,14 +3741,17 @@
         <f t="shared" si="2"/>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="25">
-        <f>AVERAGE(E13:J13)</f>
-        <v>1.1666666666666567E-2</v>
-      </c>
-      <c r="M13" s="20"/>
+      <c r="K13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="25">
+        <f>AVERAGE(E13:K13)</f>
+        <v>9.9999999999999135E-3</v>
+      </c>
       <c r="N13" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1111" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B3AE25-9E30-411C-BE62-96A0E9644963}"/>
+  <xr:revisionPtr revIDLastSave="1160" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CFBBC50-F136-473C-B358-462355854405}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="3210" windowWidth="21915" windowHeight="16035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>Dividend income</t>
   </si>
@@ -366,9 +366,6 @@
     <t>VT Leakage</t>
   </si>
   <si>
-    <t>Avg</t>
-  </si>
-  <si>
     <t>VTI-VXUS Leakage</t>
   </si>
   <si>
@@ -388,6 +385,18 @@
   </si>
   <si>
     <t>Data as at: 30 June 2022</t>
+  </si>
+  <si>
+    <t>VTI</t>
+  </si>
+  <si>
+    <t>VXUS</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>ETF</t>
   </si>
 </sst>
 </file>
@@ -885,7 +894,7 @@
         <v>0.59227016767562413</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1039,17 +1048,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89DD999-D8B8-49AB-8483-F245C54FCD05}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>2015</v>
       </c>
@@ -1068,11 +1078,14 @@
       <c r="G1" s="1">
         <v>2020</v>
       </c>
+      <c r="H1" s="1">
+        <v>2021</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -1100,18 +1113,21 @@
         <f>VT!I13</f>
         <v>1.1559750119535946E-3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="9">
-        <f>AVERAGE(B2:G2)</f>
-        <v>1.1840408681430441E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="5">
+        <f>VT!J13</f>
+        <v>1.3100715039195904E-3</v>
+      </c>
+      <c r="I2" s="12">
+        <f>AVERAGE(B2:H2)</f>
+        <v>1.2020452446825508E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:G3" si="0">B10*B8</f>
+        <f t="shared" ref="B3:H3" si="0">B9*B7</f>
         <v>8.9284937543773356E-4</v>
       </c>
       <c r="C3" s="5">
@@ -1134,47 +1150,28 @@
         <f t="shared" si="0"/>
         <v>1.1751272214198924E-3</v>
       </c>
-      <c r="I3" s="9">
-        <f>AVERAGE(B3:G3)</f>
-        <v>1.1158480227009113E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5">
-        <f>B2-B3</f>
-        <v>-1.0429124149611874E-5</v>
-      </c>
-      <c r="C4" s="5">
-        <f t="shared" ref="C4:G4" si="1">C2-C3</f>
-        <v>-1.8588222404747334E-5</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="1"/>
-        <v>-4.6558588645464983E-5</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>4.1662971820029628E-4</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>8.7255499118622359E-5</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="1"/>
-        <v>-1.915220946629775E-5</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4" si="2">I2-I3</f>
-        <v>6.8192845442132874E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>8.750464213377533E-4</v>
+      </c>
+      <c r="I3" s="12">
+        <f>AVERAGE(B3:H3)</f>
+        <v>1.0814477939347458E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1182,112 +1179,244 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="33">
+        <f>100%-B6</f>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="C7" s="33">
+        <f t="shared" ref="C7:H7" si="1">100%-C6</f>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" si="1"/>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" si="1"/>
+        <v>0.45399999999999996</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="1"/>
+        <v>0.45299999999999996</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="1"/>
+        <v>0.43100000000000005</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="1"/>
+        <v>0.40900000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="33">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="E7" s="33">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="F7" s="33">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="G7" s="33">
-        <v>0.56899999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="33">
-        <f>100%-B7</f>
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="C8" s="33">
-        <f t="shared" ref="C8:G8" si="3">100%-C7</f>
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="D8" s="33">
-        <f t="shared" si="3"/>
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="E8" s="33">
-        <f t="shared" si="3"/>
-        <v>0.45399999999999996</v>
-      </c>
-      <c r="F8" s="33">
-        <f t="shared" si="3"/>
-        <v>0.45299999999999996</v>
-      </c>
-      <c r="G8" s="33">
-        <f t="shared" si="3"/>
-        <v>0.43100000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="B9" s="5">
         <f>VXUS!D13</f>
         <v>1.8757339820120453E-3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C9" s="5">
         <f>VXUS!E13</f>
         <v>2.141956591245366E-3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D9" s="5">
         <f>VXUS!F13</f>
         <v>2.3075804156102997E-3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E9" s="5">
         <f>VXUS!G13</f>
         <v>2.4085314144904422E-3</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F9" s="5">
         <f>VXUS!H13</f>
         <v>3.0701371938350241E-3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G9" s="5">
         <f>VXUS!I13</f>
         <v>2.7265132747561305E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I14" s="4"/>
+      <c r="H9" s="5">
+        <f>VXUS!J13</f>
+        <v>2.1394778027817927E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33">
+        <f>AVERAGE(B14:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="33">
+        <f>VXUS!D12</f>
+        <v>6.2773097854264437E-2</v>
+      </c>
+      <c r="C15" s="33">
+        <f>VXUS!E12</f>
+        <v>6.7570130035036424E-2</v>
+      </c>
+      <c r="D15" s="33">
+        <f>VXUS!F12</f>
+        <v>7.5862369599965521E-2</v>
+      </c>
+      <c r="E15" s="33">
+        <f>VXUS!G12</f>
+        <v>7.3628729869290754E-2</v>
+      </c>
+      <c r="F15" s="33">
+        <f>VXUS!H12</f>
+        <v>8.6595105213854176E-2</v>
+      </c>
+      <c r="G15" s="33">
+        <f>VXUS!I12</f>
+        <v>9.5504850202672603E-2</v>
+      </c>
+      <c r="H15" s="33">
+        <f>VXUS!J12</f>
+        <v>7.4532042684704647E-2</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" ref="I15:I16" si="2">AVERAGE(B15:H15)</f>
+        <v>7.6638046494255513E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="33">
+        <f>VT!D12</f>
+        <v>3.3767327010494418E-2</v>
+      </c>
+      <c r="C16" s="33">
+        <f>VT!E12</f>
+        <v>3.7713729168169688E-2</v>
+      </c>
+      <c r="D16" s="33">
+        <f>VT!F12</f>
+        <v>4.4030809196188507E-2</v>
+      </c>
+      <c r="E16" s="33">
+        <f>VT!G12</f>
+        <v>5.5259349152744691E-2</v>
+      </c>
+      <c r="F16" s="33">
+        <f>VT!H12</f>
+        <v>5.3315326591784971E-2</v>
+      </c>
+      <c r="G16" s="33">
+        <f>VT!I12</f>
+        <v>5.1935300999915571E-2</v>
+      </c>
+      <c r="H16" s="33">
+        <f>VT!J12</f>
+        <v>6.1543953654009782E-2</v>
+      </c>
+      <c r="I16" s="33">
+        <f t="shared" si="2"/>
+        <v>4.8223685110472522E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1300,7 +1429,7 @@
   <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:J13"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1721,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1613,7 +1742,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1794,7 +1923,7 @@
   <dimension ref="B2:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:J17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,7 +2242,6 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -2207,7 +2335,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2225,7 +2353,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2410,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF67C86-3C15-44BC-82E9-B79CA13DEE16}">
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="F12:J12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,10 +2857,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
-        <f>C11/C10</f>
-        <v>3.2557683311452153E-2</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2827,7 +2952,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2845,7 +2970,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3046,7 +3171,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1160" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CFBBC50-F136-473C-B358-462355854405}"/>
+  <xr:revisionPtr revIDLastSave="1161" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F5E6A9-999E-4A00-8553-871C5BE18393}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="3210" windowWidth="21915" windowHeight="16035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5205" yWindow="1425" windowWidth="21870" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="VTI" sheetId="13" r:id="rId3"/>
     <sheet name="VXUS" sheetId="17" r:id="rId4"/>
     <sheet name="VT" sheetId="16" r:id="rId5"/>
-    <sheet name="Leakage" sheetId="18" r:id="rId6"/>
-    <sheet name="TD" sheetId="14" r:id="rId7"/>
+    <sheet name="TD" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -175,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>Dividend income</t>
   </si>
@@ -348,15 +347,6 @@
     <t>CRSP US Total Market Index</t>
   </si>
   <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
-  <si>
-    <t>Emerging</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -373,9 +363,6 @@
   </si>
   <si>
     <t>VXUS Leakage</t>
-  </si>
-  <si>
-    <t>TODO!</t>
   </si>
   <si>
     <t xml:space="preserve"> Brokerage commissions</t>
@@ -514,10 +501,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -565,7 +551,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -853,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -874,171 +859,161 @@
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>62522624</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>37030285</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>C3/C2</f>
         <v>0.59227016767562413</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>25492339</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>C4/C2</f>
         <v>0.40772983232437587</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>37426114</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>C6/C8</f>
         <v>0.59483525445229879</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f>C4</f>
         <v>25492339</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>C7/C8</f>
         <v>0.40516474554770127</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f>SUM(C6:C7)</f>
         <v>62918453</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
+      <c r="B24" s="31"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89DD999-D8B8-49AB-8483-F245C54FCD05}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1087,205 +1062,205 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="5">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4">
         <f>VT!D13</f>
         <v>8.8242025128812168E-4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>VT!E13</f>
         <v>1.0074089848017829E-3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>VT!F13</f>
         <v>1.0703103325099201E-3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>VT!G13</f>
         <v>1.510102980378957E-3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>VT!H13</f>
         <v>1.4780276479258881E-3</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>VT!I13</f>
         <v>1.1559750119535946E-3</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>VT!J13</f>
         <v>1.3100715039195904E-3</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <f>AVERAGE(B2:H2)</f>
         <v>1.2020452446825508E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="5">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4">
         <f t="shared" ref="B3:H3" si="0">B9*B7</f>
         <v>8.9284937543773356E-4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
         <v>1.0259972072065302E-3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>1.1168689211553851E-3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" si="0"/>
         <v>1.0934732621786607E-3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>1.3907721488072657E-3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>1.1751272214198924E-3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>8.750464213377533E-4</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <f>AVERAGE(B3:H3)</f>
         <v>1.0814477939347458E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="33">
+        <v>57</v>
+      </c>
+      <c r="B6" s="32">
         <v>0.52400000000000002</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>0.52100000000000002</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <v>0.51600000000000001</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>0.54600000000000004</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>0.54700000000000004</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>0.56899999999999995</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="33">
+        <v>58</v>
+      </c>
+      <c r="B7" s="32">
         <f>100%-B6</f>
         <v>0.47599999999999998</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <f t="shared" ref="C7:H7" si="1">100%-C6</f>
         <v>0.47899999999999998</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="32">
         <f t="shared" si="1"/>
         <v>0.48399999999999999</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <f t="shared" si="1"/>
         <v>0.45399999999999996</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <f t="shared" si="1"/>
         <v>0.45299999999999996</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <f t="shared" si="1"/>
         <v>0.43100000000000005</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="32">
         <f t="shared" si="1"/>
         <v>0.40900000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="5">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4">
         <f>VXUS!D13</f>
         <v>1.8757339820120453E-3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f>VXUS!E13</f>
         <v>2.141956591245366E-3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f>VXUS!F13</f>
         <v>2.3075804156102997E-3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f>VXUS!G13</f>
         <v>2.4085314144904422E-3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>VXUS!H13</f>
         <v>3.0701371938350241E-3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f>VXUS!I13</f>
         <v>2.7265132747561305E-3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f>VXUS!J13</f>
         <v>2.1394778027817927E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
         <v>2015</v>
@@ -1311,109 +1286,109 @@
       <c r="I13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="33">
+        <v>66</v>
+      </c>
+      <c r="B14" s="32">
         <v>0</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <v>0</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <v>0</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>0</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>0</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <v>0</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="32">
         <v>0</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="32">
         <f>AVERAGE(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="33">
+        <v>67</v>
+      </c>
+      <c r="B15" s="32">
         <f>VXUS!D12</f>
         <v>6.2773097854264437E-2</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <f>VXUS!E12</f>
         <v>6.7570130035036424E-2</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="32">
         <f>VXUS!F12</f>
         <v>7.5862369599965521E-2</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <f>VXUS!G12</f>
         <v>7.3628729869290754E-2</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <f>VXUS!H12</f>
         <v>8.6595105213854176E-2</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <f>VXUS!I12</f>
         <v>9.5504850202672603E-2</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="32">
         <f>VXUS!J12</f>
         <v>7.4532042684704647E-2</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="32">
         <f t="shared" ref="I15:I16" si="2">AVERAGE(B15:H15)</f>
         <v>7.6638046494255513E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="33">
+        <v>68</v>
+      </c>
+      <c r="B16" s="32">
         <f>VT!D12</f>
         <v>3.3767327010494418E-2</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <f>VT!E12</f>
         <v>3.7713729168169688E-2</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="32">
         <f>VT!F12</f>
         <v>4.4030809196188507E-2</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <f>VT!G12</f>
         <v>5.5259349152744691E-2</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <f>VT!H12</f>
         <v>5.3315326591784971E-2</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <f>VT!I12</f>
         <v>5.1935300999915571E-2</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="32">
         <f>VT!J12</f>
         <v>6.1543953654009782E-2</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="32">
         <f t="shared" si="2"/>
         <v>4.8223685110472522E-2</v>
       </c>
@@ -1440,18 +1415,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,28 +1467,28 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>383002890</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>400651057</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>498451932</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>662577171</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>672195664</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>897623869</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>1080712300</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>1373412852</v>
       </c>
       <c r="K5" s="1"/>
@@ -1522,28 +1497,28 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>AVERAGE(D6:J6)</f>
         <v>3.4285714285714285E-4</v>
       </c>
@@ -1552,320 +1527,320 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="16">
+      <c r="C7" s="6"/>
+      <c r="D7" s="15">
         <f t="shared" ref="D7:J7" si="0">(C5+D5)/2</f>
         <v>391826973.5</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>449551494.5</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>580514551.5</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>667386417.5</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
         <v>784909766.5</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <f t="shared" si="0"/>
         <v>989168084.5</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
         <v>1227062576</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="4"/>
       <c r="M7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="5"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
         <v>7909018</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>9226677</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>11052585</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>13933848</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>15136266</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>15761229</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>16541541</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="5"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
         <v>95010</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>106116</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>109770</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>126669</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>152182</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>170440</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>154799</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f>D12/D7</f>
         <v>2.4247947799846913E-4</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" ref="E13:J13" si="1">E12/E7</f>
         <v>2.3604859798769949E-4</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="1"/>
         <v>1.8909086725968144E-4</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f t="shared" si="1"/>
         <v>1.8979858846168382E-4</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>1.9388470687350021E-4</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <f t="shared" si="1"/>
         <v>1.7230640845650939E-4</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f t="shared" si="1"/>
         <v>1.2615412043990166E-4</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <f>AVERAGE(D13:J13)</f>
         <v>1.9282325249677786E-4</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="34">
+        <v>63</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="33">
         <v>12669</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="33">
         <v>17317</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <v>17830</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="33">
         <v>15697</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="37">
+        <v>64</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="35">
         <f>G15/G7</f>
         <v>1.8983005449013353E-5</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="35">
         <f t="shared" ref="H16:J16" si="2">H15/H7</f>
         <v>2.2062408622099875E-5</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="35">
         <f t="shared" si="2"/>
         <v>1.8025247962799593E-5</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="35">
         <f t="shared" si="2"/>
         <v>1.2792338636200082E-5</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f>AVERAGE(G16:J16)</f>
         <v>1.7965750167528223E-5</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="5"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>0.03</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>0.04</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <v>0.03</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="29">
         <v>0.03</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="29">
         <v>0.04</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="29">
         <v>0.08</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <v>0.04</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="15"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f>K6-K13+K16</f>
         <v>1.6799964052789321E-4</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f>TD!M13/100</f>
         <v>9.9999999999999137E-5</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f>C21-C20</f>
         <v>-6.7999640527894068E-5</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <f>C24-AVERAGE(I13:J13)+J16</f>
         <v>1.6356207418799452E-4</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
@@ -1873,7 +1848,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1883,26 +1858,26 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="28">
+      <c r="B36" s="27">
         <v>2015</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="28">
+      <c r="B37" s="27">
         <v>2016</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="28">
+      <c r="B38" s="27">
         <v>2017</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1934,18 +1909,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1986,28 +1961,28 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>132940991</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>186571267</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>224342756</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>315634959</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>336345742</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>397179784</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>371747336</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>416836681</v>
       </c>
       <c r="K5" s="1"/>
@@ -2016,31 +1991,31 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.4E-3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>AVERAGE(D6:J6)</f>
         <v>9.2857142857142867E-4</v>
       </c>
@@ -2052,153 +2027,153 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="16">
+      <c r="C7" s="6"/>
+      <c r="D7" s="15">
         <f t="shared" ref="D7:J7" si="0">(C5+D5)/2</f>
         <v>159756129</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>205457011.5</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>269988857.5</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>325990350.5</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
         <v>366762763</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <f t="shared" si="0"/>
         <v>384463560</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
         <v>394292008.5</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="5"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>4011969</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>4474041</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>6072857</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>7589496</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>9878587</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>11877171</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>9927585</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>10474761</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>468362</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>299660</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <v>440080</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>623021</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <v>785158</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>1126012</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <v>1048245</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="33">
         <v>843579</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f t="shared" ref="C12:J12" si="1">C11/(C10+C11)</f>
         <v>0.10453736565445723</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f t="shared" si="1"/>
         <v>6.2773097854264437E-2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>6.7570130035036424E-2</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f t="shared" si="1"/>
         <v>7.5862369599965521E-2</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>7.3628729869290754E-2</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
         <v>8.6595105213854176E-2</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
         <v>9.5504850202672603E-2</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <f t="shared" si="1"/>
         <v>7.4532042684704647E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <f>AVERAGE(D12:J12)</f>
         <v>7.6638046494255513E-2</v>
       </c>
@@ -2207,269 +2182,269 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
         <f>D11/D7</f>
         <v>1.8757339820120453E-3</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f t="shared" ref="E13:J13" si="2">E11/E7</f>
         <v>2.141956591245366E-3</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f t="shared" si="2"/>
         <v>2.3075804156102997E-3</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <f t="shared" si="2"/>
         <v>2.4085314144904422E-3</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <f t="shared" si="2"/>
         <v>3.0701371938350241E-3</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <f t="shared" si="2"/>
         <v>2.7265132747561305E-3</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <f t="shared" si="2"/>
         <v>2.1394778027817927E-3</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <f>AVERAGE(D13:J13)</f>
         <v>2.3814186678187284E-3</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="5"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="5"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
         <v>144109</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>227362</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>202547</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>227820</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>230079</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>194907</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>109088</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f>D16/D7</f>
         <v>9.0205615835871941E-4</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <f t="shared" ref="E17:J17" si="3">E16/E7</f>
         <v>1.1066159209660266E-3</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="3"/>
         <v>7.5020503392440928E-4</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f t="shared" si="3"/>
         <v>6.9885504172308318E-4</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <f t="shared" si="3"/>
         <v>6.2732377223366053E-4</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <f t="shared" si="3"/>
         <v>5.0695831875457846E-4</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <f t="shared" si="3"/>
         <v>2.7666804715368714E-4</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <f>AVERAGE(D17:J17)</f>
         <v>6.9552604187345199E-4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="H19" s="34">
+        <v>63</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="H19" s="33">
         <v>20573</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <v>17974</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="33">
         <v>18531</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
         <f>H19/H7</f>
         <v>5.609348078774289E-5</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f t="shared" ref="I20:J20" si="4">I19/I7</f>
         <v>4.6750854619355865E-5</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <f t="shared" si="4"/>
         <v>4.699816278421986E-5</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f>AVERAGE(D20:J20)</f>
         <v>4.994749939710621E-5</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="15"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>0.03</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <v>0.03</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="28">
         <v>0.03</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="28">
         <v>0.03</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="29">
         <v>0.04</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="29">
         <v>0.08</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>K6-K17+K13+K20</f>
         <v>2.6644115539138113E-3</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f>TD!M8/100</f>
         <v>2.95714285714286E-3</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f>C25-C24</f>
         <v>2.9273130322904871E-4</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <f>C28-AVERAGE(H17:I17)+I20</f>
         <v>1.7960980912523636E-4</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="5"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
@@ -2477,49 +2452,49 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>2014</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="28">
+      <c r="B36" s="27">
         <v>2015</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="28">
+      <c r="B37" s="27">
         <v>2016</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="28">
+      <c r="B38" s="27">
         <v>2017</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2550,18 +2525,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2602,28 +2577,28 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>5840456</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>7797037</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>8807937</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>13806065</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>15623716</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>17229526</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>20018684</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>34198204</v>
       </c>
       <c r="K5" s="1"/>
@@ -2632,28 +2607,28 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1.4E-3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1E-3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>AVERAGE(D6:J6)</f>
         <v>9.1428571428571438E-4</v>
       </c>
@@ -2662,88 +2637,88 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="16">
+      <c r="C7" s="6"/>
+      <c r="D7" s="15">
         <f t="shared" ref="D7:J7" si="0">(C5+D5)/2</f>
         <v>6818746.5</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>8302487</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>11307001</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>14714890.5</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
         <v>16426621</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <f t="shared" si="0"/>
         <v>18624105</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
         <v>27108444</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="4"/>
       <c r="M7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="5"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>132534</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>172173</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>213412</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>262751</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>379901</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>431106</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>393006</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>541537</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>53</v>
       </c>
@@ -2752,69 +2727,69 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>4315</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>6017</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>8364</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>12102</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>22221</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>24279</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>21529</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>35514</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f t="shared" ref="C12:J12" si="1">C11/(C10+C11)</f>
         <v>3.1531103625163502E-2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f t="shared" si="1"/>
         <v>3.3767327010494418E-2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>3.7713729168169688E-2</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f t="shared" si="1"/>
         <v>4.4030809196188507E-2</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>5.5259349152744691E-2</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
         <v>5.3315326591784971E-2</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
         <v>5.1935300999915571E-2</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <f t="shared" si="1"/>
         <v>6.1543953654009782E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <f>AVERAGE(D12:J12)</f>
         <v>4.8223685110472522E-2</v>
       </c>
@@ -2823,274 +2798,273 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f>D11/D7</f>
         <v>8.8242025128812168E-4</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f t="shared" ref="E13:J13" si="2">E11/E7</f>
         <v>1.0074089848017829E-3</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f t="shared" si="2"/>
         <v>1.0703103325099201E-3</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <f t="shared" si="2"/>
         <v>1.510102980378957E-3</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <f t="shared" si="2"/>
         <v>1.4780276479258881E-3</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <f t="shared" si="2"/>
         <v>1.1559750119535946E-3</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <f t="shared" si="2"/>
         <v>1.3100715039195904E-3</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <f>AVERAGE(D13:J13)</f>
         <v>1.2020452446825508E-3</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="5"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
         <v>2938</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>4632</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>3961</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>5105</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>5010</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>4477</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>4452</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f>D16/D7</f>
         <v>4.3087098193194306E-4</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <f t="shared" ref="E17:J17" si="3">E16/E7</f>
         <v>5.5790511927329722E-4</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="3"/>
         <v>3.5031393381852537E-4</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f t="shared" si="3"/>
         <v>3.4692748817940577E-4</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <f t="shared" si="3"/>
         <v>3.0499273100657767E-4</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <f t="shared" si="3"/>
         <v>2.4038739042762055E-4</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <f t="shared" si="3"/>
         <v>1.6422927114518267E-4</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <f>AVERAGE(D17:J17)</f>
         <v>3.4223241654036469E-4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="H19" s="34">
+        <v>63</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="H19" s="33">
         <v>557</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <v>519</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="33">
         <v>926</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="H20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="7">
         <f>H19/H7</f>
         <v>3.3908373487158438E-5</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f t="shared" ref="I20:J20" si="4">I19/I7</f>
         <v>2.786711092962588E-5</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <f t="shared" si="4"/>
         <v>3.4159098176199269E-5</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f>AVERAGE(D20:J20)</f>
         <v>3.1978194197661198E-5</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="5"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <v>0.15</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="29">
         <v>0.1</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>0.09</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <v>0.06</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="29">
         <v>0.06</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="15"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>K6-K17+K13+K20</f>
         <v>1.8060767366255618E-3</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f>TD!M4/100</f>
         <v>1.8571428571428586E-3</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f>C25-C24</f>
         <v>5.1066120517296882E-5</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <f>C28-AVERAGE(H17:I17)+J20</f>
         <v>4.6146903745910016E-4</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="9"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -3098,44 +3072,44 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>2015</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>2016</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="28">
+      <c r="B36" s="27">
         <v>2017</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="28">
+      <c r="B37" s="27">
         <v>2018</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3153,202 +3127,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC4B1D-6D6E-4BBB-9C04-D64B6974E845}">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34">
-        <v>392224</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34">
-        <v>42493</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="14">
-        <f t="shared" ref="D5:F5" si="0">D4/(D3+D4)</f>
-        <v>9.774865027132594E-2</v>
-      </c>
-      <c r="E5" s="14" t="e">
-        <f>E4/(E3+E4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34">
-        <v>153612</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34">
-        <v>12039</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="14">
-        <f t="shared" ref="D11:F11" si="1">D10/(D9+D10)</f>
-        <v>7.2676892985855807E-2</v>
-      </c>
-      <c r="E11" s="14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34">
-        <v>1998576</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34">
-        <v>236038</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" ref="D17:F17" si="2">D16/(D15+D16)</f>
-        <v>0.10562808610346126</v>
-      </c>
-      <c r="E17" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="6"/>
-      <c r="D24" s="33"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="6"/>
-      <c r="D25" s="33"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="33"/>
-      <c r="H26" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55271D4-8CAB-4791-86A4-56A1D92A09CA}">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -3361,525 +3139,525 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="22">
+      <c r="A1" s="19"/>
+      <c r="B1" s="21">
         <v>2012</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="21">
         <v>2013</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="21">
         <v>2014</v>
       </c>
-      <c r="E1" s="22">
+      <c r="E1" s="21">
         <v>2015</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="21">
         <v>2016</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="21">
         <v>2017</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="21">
         <v>2018</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="21">
         <v>2019</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="21">
         <v>2020</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="21">
         <v>2021</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>17.329999999999998</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>22.98</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>3.97</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>-1.88</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>8.77</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <v>24.19</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>-9.67</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <v>26.8</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>16.739999999999998</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>18.25</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>17.2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>23.9</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>4.5</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>-1.7</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>9</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>24.4</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>-9.6</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>27.1</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>16.8</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>18.5</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <f t="shared" ref="B4:K4" si="0">B3-B2</f>
         <v>-0.12999999999999901</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <f t="shared" si="0"/>
         <v>0.91999999999999815</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <f t="shared" si="0"/>
         <v>0.5299999999999998</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <f t="shared" si="0"/>
         <v>0.17999999999999994</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <f t="shared" si="0"/>
         <v>0.23000000000000043</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <f t="shared" si="0"/>
         <v>0.2099999999999973</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <f t="shared" si="0"/>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="23">
         <f t="shared" si="0"/>
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="23">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="25">
+      <c r="L4" s="19"/>
+      <c r="M4" s="24">
         <f>AVERAGE(E4:K4)</f>
         <v>0.18571428571428586</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>18.22</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>15.16</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>-4.17</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>-4.28</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>4.72</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>27.52</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>-14.42</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>21.58</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>11.32</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>8.69</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>17.899999999999999</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>15.9</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>-3.1</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>-4</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>5</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>27.8</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>-14.4</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>22.2</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>11.5</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <v>9.1</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <f>B7-B6</f>
         <v>-0.32000000000000028</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <f t="shared" ref="C8:K8" si="1">C7-C6</f>
         <v>0.74000000000000021</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f t="shared" si="1"/>
         <v>1.0699999999999998</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="1"/>
         <v>0.28000000000000025</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="1"/>
         <v>0.28000000000000025</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="1"/>
         <v>0.28000000000000114</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="1"/>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="1"/>
         <v>0.62000000000000099</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <f t="shared" si="1"/>
         <v>0.17999999999999972</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <f t="shared" si="1"/>
         <v>0.41000000000000014</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="25">
+      <c r="L8" s="19"/>
+      <c r="M8" s="24">
         <f>AVERAGE(E8:K8)</f>
         <v>0.29571428571428598</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>16.41</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>33.51</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>12.56</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>0.4</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>12.68</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>21.16</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>-5.13</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>30.8</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <v>20.95</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>25.72</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>16.440000000000001</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>33.51</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>12.58</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>0.4</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>12.68</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>21.19</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>-5.17</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>30.84</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>20.99</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>25.72</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>16.399999999999999</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>33.4</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>12.5</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>0.5</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>12.5</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>21.5</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>-5.2</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>31.3</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="18">
         <v>21.1</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <v>25.7</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <f t="shared" ref="B13:K13" si="2">B11-B10</f>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <f t="shared" si="2"/>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <f t="shared" si="2"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f t="shared" si="2"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <f t="shared" si="2"/>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <f t="shared" si="2"/>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="25">
+      <c r="L13" s="19"/>
+      <c r="M13" s="24">
         <f>AVERAGE(E13:K13)</f>
         <v>9.9999999999999135E-3</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vanguard US/Vanguard-US-KostenBepaling.xlsx
+++ b/Vanguard US/Vanguard-US-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1161" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F5E6A9-999E-4A00-8553-871C5BE18393}"/>
+  <xr:revisionPtr revIDLastSave="1272" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{415F4F03-E289-4A7B-BE5C-07A6FEFD9C8F}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="1425" windowWidth="21870" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -552,6 +552,7 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -571,6 +572,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2511,10 +2516,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF67C86-3C15-44BC-82E9-B79CA13DEE16}">
-  <dimension ref="B2:M37"/>
+  <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,11 +3082,11 @@
       </c>
       <c r="C32" s="26"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="26"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <v>2015</v>
       </c>
@@ -3089,7 +3094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="27">
         <v>2016</v>
       </c>
@@ -3097,7 +3102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <v>2017</v>
       </c>
@@ -3105,13 +3110,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="27">
         <v>2018</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3128,9 +3142,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55271D4-8CAB-4791-86A4-56A1D92A09CA}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3170,7 +3184,9 @@
       <c r="K1" s="21">
         <v>2021</v>
       </c>
-      <c r="L1" s="19"/>
+      <c r="L1" s="19">
+        <v>2022</v>
+      </c>
       <c r="M1" s="17" t="s">
         <v>2</v>
       </c>
@@ -3252,7 +3268,9 @@
       <c r="K3" s="19">
         <v>18.5</v>
       </c>
-      <c r="L3" s="19"/>
+      <c r="L3" s="19">
+        <v>-17.899999999999999</v>
+      </c>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
@@ -3263,43 +3281,43 @@
         <v>6</v>
       </c>
       <c r="B4" s="23">
-        <f t="shared" ref="B4:K4" si="0">B3-B2</f>
+        <f t="shared" ref="B4" si="0">B3-B2</f>
         <v>-0.12999999999999901</v>
       </c>
       <c r="C4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:K4" si="1">C3-C2</f>
         <v>0.91999999999999815</v>
       </c>
       <c r="D4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5299999999999998</v>
       </c>
       <c r="E4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="F4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23000000000000043</v>
       </c>
       <c r="G4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2099999999999973</v>
       </c>
       <c r="H4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="I4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="J4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0000000000002274E-2</v>
       </c>
       <c r="K4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="L4" s="19"/>
@@ -3420,39 +3438,39 @@
         <v>-0.32000000000000028</v>
       </c>
       <c r="C8" s="19">
-        <f t="shared" ref="C8:K8" si="1">C7-C6</f>
+        <f t="shared" ref="C8:K8" si="2">C7-C6</f>
         <v>0.74000000000000021</v>
       </c>
       <c r="D8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0699999999999998</v>
       </c>
       <c r="E8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28000000000000025</v>
       </c>
       <c r="F8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28000000000000025</v>
       </c>
       <c r="G8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28000000000000114</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="I8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62000000000000099</v>
       </c>
       <c r="J8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17999999999999972</v>
       </c>
       <c r="K8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41000000000000014</v>
       </c>
       <c r="L8" s="19"/>
@@ -3609,43 +3627,43 @@
         <v>6</v>
       </c>
       <c r="B13" s="19">
-        <f t="shared" ref="B13:K13" si="2">B11-B10</f>
+        <f t="shared" ref="B13:K13" si="3">B11-B10</f>
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="C13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="E13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0000000000001137E-2</v>
       </c>
       <c r="H13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="I13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999999147E-2</v>
       </c>
       <c r="J13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999999147E-2</v>
       </c>
       <c r="K13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13" s="19"/>
@@ -3658,6 +3676,67 @@
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
